--- a/tietokanta/character_creation/excel/ancestry.xlsx
+++ b/tietokanta/character_creation/excel/ancestry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9CBC0-6C0F-478D-86BF-1F8347F9BAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B2648-6726-4CE0-BEA2-EF58A6094294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,17 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D3B0DEC5-97FF-4C89-A80A-1CDAEA154B41}" name="schema" type="4" refreshedVersion="0" background="1">
+  <connection id="1" xr16:uid="{06F29D38-4DB0-47E4-A29F-923CDDFB37CC}" name="ancestry_schema" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\schemas\ancestry_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" xr16:uid="{D3B0DEC5-97FF-4C89-A80A-1CDAEA154B41}" name="schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>HP</t>
   </si>
@@ -159,6 +162,9 @@
   </si>
   <si>
     <t>Human|||Humanoid</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -216,23 +222,23 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="ancestry">
+      <xsd:element nillable="true" name="Ancestry">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
             <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="race" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Ancestry" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="HP" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Size" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Speed" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Boost" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Flaw" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Language" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Trait" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Special" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ancName" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="size" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="speed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="boost" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="flaw" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="language" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="trait" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="special" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -241,7 +247,7 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="ancestry-määritys" RootElement="ancestry" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+  <Map ID="3" Name="Ancestry-määritys" RootElement="Ancestry" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
@@ -251,32 +257,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5820788F-0302-4058-A9C1-EF0AA5954AB6}" name="Taulukko1" displayName="Taulukko1" ref="A1:I7" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:I7" xr:uid="{5F4371CF-F095-4ECF-B96E-5366C2F01603}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6BD45A7D-47B8-48D5-8B4C-EAC9640A35DA}" uniqueName="Ancestry" name="Ancestry">
-      <xmlColumnPr mapId="1" xpath="/ancestry/race/Ancestry" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{0A3706C9-8573-4B0B-A34F-A0DA84891C80}" uniqueName="HP" name="HP">
-      <xmlColumnPr mapId="1" xpath="/ancestry/race/HP" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{AEB5B3DA-F9F1-4240-A5FD-B9E358AA29F7}" uniqueName="Size" name="Size">
-      <xmlColumnPr mapId="1" xpath="/ancestry/race/Size" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{31E041E3-C4AB-4DC1-922F-5AC065372049}" uniqueName="Speed" name="Speed">
-      <xmlColumnPr mapId="1" xpath="/ancestry/race/Speed" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{786D15C6-DBF4-45AF-AD17-5AFED20CD794}" uniqueName="Boost" name="Boost">
-      <xmlColumnPr mapId="1" xpath="/ancestry/race/Boost" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{D80B9758-66A1-4E4E-A111-6BA55351B60D}" uniqueName="Flaw" name="Flaw">
-      <xmlColumnPr mapId="1" xpath="/ancestry/race/Flaw" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{892D8274-10BE-4668-A9C4-480A9537C101}" uniqueName="Language" name="Language">
-      <xmlColumnPr mapId="1" xpath="/ancestry/race/Language" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD4D6967-56D7-44F0-86F7-0B6FA356AA88}" uniqueName="Trait" name="Trait">
-      <xmlColumnPr mapId="1" xpath="/ancestry/race/Trait" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{9E416233-3923-4350-A63F-166C009DECCC}" uniqueName="Special" name="Special">
-      <xmlColumnPr mapId="1" xpath="/ancestry/race/Special" xmlDataType="string"/>
+    <tableColumn id="1" xr3:uid="{6BD45A7D-47B8-48D5-8B4C-EAC9640A35DA}" uniqueName="ancName" name="Ancestry">
+      <xmlColumnPr mapId="3" xpath="/Ancestry/race/ancName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{0A3706C9-8573-4B0B-A34F-A0DA84891C80}" uniqueName="hp" name="HP">
+      <xmlColumnPr mapId="3" xpath="/Ancestry/race/hp" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AEB5B3DA-F9F1-4240-A5FD-B9E358AA29F7}" uniqueName="size" name="Size">
+      <xmlColumnPr mapId="3" xpath="/Ancestry/race/size" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{31E041E3-C4AB-4DC1-922F-5AC065372049}" uniqueName="speed" name="Speed">
+      <xmlColumnPr mapId="3" xpath="/Ancestry/race/speed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{786D15C6-DBF4-45AF-AD17-5AFED20CD794}" uniqueName="boost" name="Boost">
+      <xmlColumnPr mapId="3" xpath="/Ancestry/race/boost" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D80B9758-66A1-4E4E-A111-6BA55351B60D}" uniqueName="flaw" name="Flaw">
+      <xmlColumnPr mapId="3" xpath="/Ancestry/race/flaw" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{892D8274-10BE-4668-A9C4-480A9537C101}" uniqueName="language" name="Language">
+      <xmlColumnPr mapId="3" xpath="/Ancestry/race/language" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{CD4D6967-56D7-44F0-86F7-0B6FA356AA88}" uniqueName="trait" name="Trait">
+      <xmlColumnPr mapId="3" xpath="/Ancestry/race/trait" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9E416233-3923-4350-A63F-166C009DECCC}" uniqueName="special" name="Special">
+      <xmlColumnPr mapId="3" xpath="/Ancestry/race/special" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -549,7 +555,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,14 +758,18 @@
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
